--- a/Analýza topiků/Topik50.xlsx
+++ b/Analýza topiků/Topik50.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bakalarska prace\Analýza topiků\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Web\KI_UJEP_THESIS_LADISLAV_TAHAL\Analýza topiků\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B60DBB-DDB9-48D7-9958-8AEFD8E76516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2427620A-A6AC-4F5E-AC5F-280ECF9DFEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{9DE4DDB9-E5D8-4227-BB41-D75CB2C51642}"/>
+    <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{9DE4DDB9-E5D8-4227-BB41-D75CB2C51642}"/>
   </bookViews>
   <sheets>
     <sheet name="json_groups50_2025-10-14" sheetId="2" r:id="rId1"/>
@@ -638,7 +638,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
